--- a/deployment/Omaha_Cal_Info_GI05MOAS-GL484_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-GL484_00003.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="23700" windowHeight="10280" tabRatio="377"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="23700" windowHeight="10275" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$379</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Ref Des</t>
   </si>
@@ -127,6 +132,21 @@
   </si>
   <si>
     <t>AR-07-01</t>
+  </si>
+  <si>
+    <t>OL000119</t>
+  </si>
+  <si>
+    <t>A00966</t>
+  </si>
+  <si>
+    <t>N00530</t>
+  </si>
+  <si>
+    <t>N00529</t>
+  </si>
+  <si>
+    <t>N00528</t>
   </si>
 </sst>
 </file>
@@ -135,7 +155,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -217,6 +237,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,12 +251,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -324,7 +347,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -382,7 +405,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,7 +423,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,22 +828,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="22" customWidth="1"/>
     <col min="2" max="9" width="21" style="22" customWidth="1"/>
     <col min="10" max="11" width="16" style="22" customWidth="1"/>
     <col min="12" max="12" width="34" style="22" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="22" customWidth="1"/>
-    <col min="14" max="14" width="20.83203125" style="22" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="22"/>
+    <col min="13" max="13" width="20.42578125" style="22" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28">
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
@@ -859,42 +881,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="21" customFormat="1" ht="16" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:15" s="21" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>484</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="23">
         <v>3</v>
       </c>
       <c r="E2" s="19">
         <v>42560</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>0.43888888888888888</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <v>42948</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="29">
         <v>59.859161666666665</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="29">
         <v>-39.132131666666666</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="23">
         <v>1000</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -911,21 +935,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -951,18 +977,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
       <c r="C2" s="6">
         <v>484</v>
       </c>
       <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
       <c r="F2" s="17">
         <v>3550</v>
       </c>
@@ -976,18 +1006,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
       <c r="C3" s="11">
         <v>484</v>
       </c>
       <c r="D3" s="9">
         <v>3</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
       <c r="F3" s="18">
         <v>3550</v>
       </c>
@@ -1001,18 +1035,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
       <c r="C4" s="11">
         <v>484</v>
       </c>
       <c r="D4" s="9">
         <v>3</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
       <c r="F4" s="18">
         <v>3550</v>
       </c>
@@ -1026,18 +1064,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="11">
         <v>484</v>
       </c>
       <c r="D5" s="9">
         <v>3</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
       <c r="F5" s="18">
         <v>3550</v>
       </c>
@@ -1051,7 +1093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="10"/>
@@ -1067,18 +1109,22 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" s="10">
         <v>484</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
       <c r="F7" s="16">
         <v>324</v>
       </c>
@@ -1093,7 +1139,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1">
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="10"/>
@@ -1109,18 +1155,22 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1">
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
       <c r="C9" s="10">
         <v>484</v>
       </c>
       <c r="D9" s="6">
         <v>3</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" s="16">
         <v>9195</v>
       </c>
@@ -1135,7 +1185,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1">
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="10"/>
@@ -1151,18 +1201,22 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
       <c r="C11" s="10">
         <v>484</v>
       </c>
       <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="16">
         <v>484</v>
       </c>
@@ -1177,7 +1231,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1">
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="6"/>
